--- a/data/scenario_c_mcsr.xlsx
+++ b/data/scenario_c_mcsr.xlsx
@@ -1,82 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\数学建模\2026MCM\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788B4A92-A297-4223-A1CB-E22A0961AC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Target_Completion_Year</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>Total_Cost_Billion</t>
-  </si>
-  <si>
-    <t>MCSR</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -91,30 +43,84 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,437 +408,362 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Target_Completion_Year</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Duration</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Total_Cost_Billion</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MCSR</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2126</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>76</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>22845.20139259379</v>
       </c>
-      <c r="D2">
-        <v>375.16925888919002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D2" t="n">
+        <v>375.16925888919</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2131</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>81</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>20969.35509814784</v>
       </c>
-      <c r="D3">
-        <v>265.24942375137402</v>
-      </c>
-      <c r="E3" s="1">
-        <f>(D2-D3)/D2 * 100%</f>
-        <v>0.29298731847931581</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="D3" t="n">
+        <v>265.249423751374</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>2136</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>86</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>19643.10797939097</v>
       </c>
-      <c r="D4">
-        <v>224.24046516416419</v>
-      </c>
-      <c r="E4" s="1">
-        <f t="shared" ref="E4:E23" si="0">(D3-D4)/D3 * 100%</f>
-        <v>0.15460526928664969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="D4" t="n">
+        <v>224.2404651641642</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>2141</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>91</v>
       </c>
-      <c r="C5">
-        <v>18521.905653570149</v>
-      </c>
-      <c r="D5">
-        <v>191.87439328889161</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" si="0"/>
-        <v>0.14433644637500062</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C5" t="n">
+        <v>18521.90565357015</v>
+      </c>
+      <c r="D5" t="n">
+        <v>191.8743932888916</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>2146</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>96</v>
       </c>
-      <c r="C6">
-        <v>17562.533687125691</v>
-      </c>
-      <c r="D6">
-        <v>181.33478560565061</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="0"/>
-        <v>5.4929725132067335E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C6" t="n">
+        <v>17562.53368712569</v>
+      </c>
+      <c r="D6" t="n">
+        <v>181.3347856056506</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>2151</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>101</v>
       </c>
-      <c r="C7">
-        <v>16655.859759097439</v>
-      </c>
-      <c r="D7">
-        <v>160.85398319370759</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11294469697878426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C7" t="n">
+        <v>16655.85975909744</v>
+      </c>
+      <c r="D7" t="n">
+        <v>160.8539831937076</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>2156</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>106</v>
       </c>
-      <c r="C8">
-        <v>15851.589843128901</v>
-      </c>
-      <c r="D8">
-        <v>154.50546626939001</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="0"/>
-        <v>3.9467576731826465E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C8" t="n">
+        <v>15851.5898431289</v>
+      </c>
+      <c r="D8" t="n">
+        <v>154.50546626939</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>2161</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>111</v>
       </c>
-      <c r="C9">
-        <v>15079.062511781951</v>
-      </c>
-      <c r="D9">
-        <v>142.11097191510629</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>8.0220426199505077E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C9" t="n">
+        <v>15079.06251178195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>142.1109719151063</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>2166</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>116</v>
       </c>
-      <c r="C10">
-        <v>14368.507652206419</v>
-      </c>
-      <c r="D10">
+      <c r="C10" t="n">
+        <v>14368.50765220642</v>
+      </c>
+      <c r="D10" t="n">
         <v>135.8446151495358</v>
       </c>
-      <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>4.4094813237318967E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>2171</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>121</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>13689.28457645874</v>
       </c>
-      <c r="D11">
-        <v>129.91255412431019</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="0"/>
-        <v>4.3667988007442766E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="D11" t="n">
+        <v>129.9125541243102</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>2176</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>126</v>
       </c>
-      <c r="C12">
-        <v>13039.721805837189</v>
-      </c>
-      <c r="D12">
-        <v>121.71980583046169</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3063561093634202E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="C12" t="n">
+        <v>13039.72180583719</v>
+      </c>
+      <c r="D12" t="n">
+        <v>121.7198058304617</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>2181</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>131</v>
       </c>
-      <c r="C13">
-        <v>12431.122776684881</v>
-      </c>
-      <c r="D13">
-        <v>121.50292035964991</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.7818420702533785E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C13" t="n">
+        <v>12431.12277668488</v>
+      </c>
+      <c r="D13" t="n">
+        <v>121.5029203596499</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2186</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>136</v>
       </c>
-      <c r="C14">
-        <v>11823.608174886631</v>
-      </c>
-      <c r="D14">
-        <v>112.22853358126009</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="0"/>
-        <v>7.6330566795740629E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C14" t="n">
+        <v>11823.60817488663</v>
+      </c>
+      <c r="D14" t="n">
+        <v>112.2285335812601</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v>2191</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>141</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>11262.46550698033</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>113.6482345004901</v>
       </c>
-      <c r="E15" s="1">
-        <f t="shared" si="0"/>
-        <v>-1.2650088831482973E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
         <v>2196</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>146</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>10694.22433447788</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>105.8794315606679</v>
       </c>
-      <c r="E16" s="1">
-        <f t="shared" si="0"/>
-        <v>6.8358324913430191E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
         <v>2201</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>151</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>10164.82717667454</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>105.2076205785575</v>
       </c>
-      <c r="E17" s="1">
-        <f t="shared" si="0"/>
-        <v>6.3450565629969364E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>2206</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>156</v>
       </c>
-      <c r="C18">
-        <v>9638.7890737817524</v>
-      </c>
-      <c r="D18">
+      <c r="C18" t="n">
+        <v>9638.789073781752</v>
+      </c>
+      <c r="D18" t="n">
         <v>101.1759304587558</v>
       </c>
-      <c r="E18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.8321274615190748E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>2211</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>161</v>
       </c>
-      <c r="C19">
-        <v>9132.9094214879733</v>
-      </c>
-      <c r="D19">
-        <v>97.857994846241496</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>3.27937247275117E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="C19" t="n">
+        <v>9132.909421487973</v>
+      </c>
+      <c r="D19" t="n">
+        <v>97.8579948462415</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
         <v>2216</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>166</v>
       </c>
-      <c r="C20">
-        <v>8643.6194472567659</v>
-      </c>
-      <c r="D20">
-        <v>97.824969681329463</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="0"/>
-        <v>3.3748049879750013E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C20" t="n">
+        <v>8643.619447256766</v>
+      </c>
+      <c r="D20" t="n">
+        <v>97.82496968132946</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
         <v>2221</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>171</v>
       </c>
-      <c r="C21">
-        <v>8154.4945988501186</v>
-      </c>
-      <c r="D21">
-        <v>91.446036234326314</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="0"/>
-        <v>6.5207619974561676E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" t="n">
+        <v>8154.494598850119</v>
+      </c>
+      <c r="D21" t="n">
+        <v>91.44603623432631</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
         <v>2226</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>176</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>7697.264417678487</v>
       </c>
-      <c r="D22">
-        <v>95.100427779031818</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="0"/>
-        <v>-3.9962273874192773E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="D22" t="n">
+        <v>95.10042777903182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
         <v>2231</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>181</v>
       </c>
-      <c r="C23">
-        <v>7221.7622787833279</v>
-      </c>
-      <c r="D23">
-        <v>88.412462711982158</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="0"/>
-        <v>7.0325288994380883E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C23" t="n">
+        <v>7221.762278783328</v>
+      </c>
+      <c r="D23" t="n">
+        <v>88.41246271198216</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>2236</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>186</v>
       </c>
-      <c r="C24">
-        <v>6779.6999652234172</v>
-      </c>
+      <c r="C24" t="n">
+        <v>6779.699965223417</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>